--- a/biology/Virologie/Bernard_Fauconnier/Bernard_Fauconnier.xlsx
+++ b/biology/Virologie/Bernard_Fauconnier/Bernard_Fauconnier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernard Fauconnier (1922-2015) est un virologue et écrivain français, membre de l'Académie nationale de médecine. 
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils d'Henri Fauconnier et de Madeleine Meslier, son épouse, il nait en 1922 à Bures-sur-Yvette, près de Paris. Après des études secondaires, à Tunis, il revient en France juste avant la guerre[1]. Durant celle-ci, il montre une opposition farouche à l'occupant en refusant par deux fois le STO. Il débute alors les études de médecine, qu'il terminera après la fin de la guerre[1].
-Entré à l'Institut Pasteur de Paris par la petite porte, ses travaux scientifiques internationaux l'amènent à devenir chef de laboratoire[1]. À la suite d'une année passée comme directeur adjoint de l'Institut Pasteur  d'Athènes, il passe le concours d'agrégation de médecine dans la section de microbiologie et occupe son poste à la Faculté de médecine de Rennes. Après sept années, il est nommé professeur titulaire et poursuit ses recherches sur l'interféron qui lui valent une renommée internationale et une élection à l'Académie Nationale de Médecine.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils d'Henri Fauconnier et de Madeleine Meslier, son épouse, il nait en 1922 à Bures-sur-Yvette, près de Paris. Après des études secondaires, à Tunis, il revient en France juste avant la guerre. Durant celle-ci, il montre une opposition farouche à l'occupant en refusant par deux fois le STO. Il débute alors les études de médecine, qu'il terminera après la fin de la guerre.
+Entré à l'Institut Pasteur de Paris par la petite porte, ses travaux scientifiques internationaux l'amènent à devenir chef de laboratoire. À la suite d'une année passée comme directeur adjoint de l'Institut Pasteur  d'Athènes, il passe le concours d'agrégation de médecine dans la section de microbiologie et occupe son poste à la Faculté de médecine de Rennes. Après sept années, il est nommé professeur titulaire et poursuit ses recherches sur l'interféron qui lui valent une renommée internationale et une élection à l'Académie Nationale de Médecine.
 Il prend sa retraite à 70 ans, et se lance alors dans l'écriture de romans, sans doute par atavisme. Il en publie plus d'une dizaine, dont trois consacré à la vie de son père Henri Fauconnier, Prix Goncourt. Il a poursuivi sa vie d'écrivain à Rennes au côté de son épouse Liliane.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Principales publications scientifiques et littéraires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Près d'une centaine de publications scientifiques dans les revues internationales et locales
 Plus d'une dizaine de romans
@@ -580,7 +596,9 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1975 : Prix Paul Doistau-Émile Blutet de l'Académie des sciences</t>
         </is>
